--- a/src/shared/Questions-Answers.xlsx
+++ b/src/shared/Questions-Answers.xlsx
@@ -289,7 +289,7 @@
     <t>¿En qué estadio juega el CD Hermanos Colmenarez?</t>
   </si>
   <si>
-    <t>El CD Hermanos Colmenarez juega en el Estadio Agustín Tovar "La Carolina", ubicado en Barinas, Barinas. El estadio tiene una capacidad de 20.000 espectadores.</t>
+    <t>El CD Hermanos Colmenarez juega en el Estadio Agustín Tovar La Carolina, ubicado en Barinas, Barinas. El estadio tiene una capacidad de 20.000 espectadores.</t>
   </si>
   <si>
     <t>¿En qué estadio juega la Universidad Central De Venezuela?</t>
@@ -301,7 +301,7 @@
     <t>¿En qué estadio juega el Zamora FC?</t>
   </si>
   <si>
-    <t>El Zamora FC juega en el Estadio Agustín Tovar "La Carolina", ubicado en Barinas, Barinas. El estadio tiene una capacidad de 20.000 espectadores.</t>
+    <t>El Zamora FC juega en el Estadio Agustín Tovar La Carolina, ubicado en Barinas, Barinas. El estadio tiene una capacidad de 20.000 espectadores.</t>
   </si>
   <si>
     <t>¿En qué estadio juega el Deportivo Rayo Zuliano?</t>
